--- a/codigo_final_organizado/analisis/resultados_generales_robustos/Tabla_Victorias_DM_CORREGIDO.xlsx
+++ b/codigo_final_organizado/analisis/resultados_generales_robustos/Tabla_Victorias_DM_CORREGIDO.xlsx
@@ -529,17 +529,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -554,20 +554,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
@@ -579,20 +579,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -604,11 +604,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="n">
         <v>37.5</v>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>8</v>
@@ -760,17 +760,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -785,11 +785,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sieve Bootstrap</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>87.5</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>50</v>
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
@@ -935,20 +935,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
@@ -960,11 +960,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1066,20 +1066,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -1091,11 +1091,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sieve Bootstrap</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>62.5</v>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>8</v>
@@ -1116,20 +1116,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>AREPD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="n">
         <v>12.5</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>8</v>
@@ -1191,11 +1191,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="n">
         <v>12.5</v>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>8</v>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="n">
         <v>12.5</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -1372,20 +1372,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>8</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>50</v>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>37.5</v>
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C7" t="n">
